--- a/tests/testthat/testdata/struct_tests6.xlsx
+++ b/tests/testthat/testdata/struct_tests6.xlsx
@@ -8,21 +8,10 @@
   <sheets>
     <sheet name="timeseries" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -31,106 +20,106 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>table_name</t>
+  </si>
+  <si>
+    <t>dimensions</t>
+  </si>
+  <si>
+    <t>dimension_levels_text</t>
+  </si>
+  <si>
+    <t>dimension_levels_code</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>interval</t>
+  </si>
+  <si>
+    <t>series_name</t>
+  </si>
+  <si>
+    <t>table_code</t>
+  </si>
+  <si>
+    <t>series_code</t>
+  </si>
+  <si>
+    <t>Maja Založnik</t>
+  </si>
+  <si>
+    <t>MZ001</t>
+  </si>
+  <si>
+    <t>dff</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>dsf</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>sdt</t>
+  </si>
+  <si>
     <t>UMAR--MZ001--1123--M</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>ffs</t>
+  </si>
+  <si>
+    <t>sdffs</t>
+  </si>
+  <si>
     <t>UMAR--MZ001--234--M</t>
   </si>
   <si>
+    <t>MZ002</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>sdsd</t>
+  </si>
+  <si>
     <t>UMAR--MZ002--1--M</t>
   </si>
   <si>
+    <t>MZ007</t>
+  </si>
+  <si>
+    <t>mer--geo</t>
+  </si>
+  <si>
+    <t>2--1</t>
+  </si>
+  <si>
+    <t>lkj--11</t>
+  </si>
+  <si>
     <t>UMAR--MZ007--LKJ--11--A</t>
   </si>
   <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>author</t>
-  </si>
-  <si>
-    <t>table_name</t>
-  </si>
-  <si>
-    <t>dimensions</t>
-  </si>
-  <si>
-    <t>dimension_levels_text</t>
-  </si>
-  <si>
-    <t>dimension_levels_code</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>interval</t>
-  </si>
-  <si>
-    <t>series_name</t>
-  </si>
-  <si>
-    <t>table_code</t>
-  </si>
-  <si>
-    <t>series_code</t>
-  </si>
-  <si>
-    <t>umar</t>
-  </si>
-  <si>
-    <t>Maja Založnik</t>
-  </si>
-  <si>
-    <t>dff</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>dsf</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>sdt</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>ffs</t>
-  </si>
-  <si>
-    <t>sdffs</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>sdsd</t>
-  </si>
-  <si>
-    <t>mer--geo</t>
-  </si>
-  <si>
-    <t>2--1</t>
-  </si>
-  <si>
-    <t>lkj--11</t>
-  </si>
-  <si>
-    <t>MZ007</t>
-  </si>
-  <si>
-    <t>MZ001</t>
-  </si>
-  <si>
-    <t>MZ002</t>
+    <t>umar, surs</t>
   </si>
   <si>
     <t xml:space="preserve">source</t>
@@ -166,7 +155,7 @@
     <t xml:space="preserve">series_code</t>
   </si>
   <si>
-    <t xml:space="preserve">umar</t>
+    <t xml:space="preserve">umar, surs</t>
   </si>
   <si>
     <t xml:space="preserve">Maja Založnik</t>
@@ -589,7 +578,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
@@ -774,6 +763,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/tests/testthat/testdata/struct_tests6.xlsx
+++ b/tests/testthat/testdata/struct_tests6.xlsx
@@ -18,7 +18,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+  <si>
+    <t>Maja Založnik</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>MZ002</t>
+  </si>
+  <si>
+    <t>MZ007</t>
+  </si>
+  <si>
+    <t>UMAR--MZ007--LKJ--11--A</t>
+  </si>
+  <si>
+    <t>umar, surs</t>
+  </si>
   <si>
     <t>source</t>
   </si>
@@ -53,21 +71,15 @@
     <t>series_code</t>
   </si>
   <si>
+    <t>umar, surs</t>
+  </si>
+  <si>
     <t>Maja Založnik</t>
   </si>
   <si>
-    <t>MZ001</t>
-  </si>
-  <si>
     <t>dff</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>dsf</t>
-  </si>
-  <si>
     <t>%</t>
   </si>
   <si>
@@ -77,49 +89,40 @@
     <t>sdt</t>
   </si>
   <si>
-    <t>UMAR--MZ001--1123--M</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>ffs</t>
-  </si>
-  <si>
     <t>sdffs</t>
   </si>
   <si>
-    <t>UMAR--MZ001--234--M</t>
-  </si>
-  <si>
-    <t>MZ002</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>sdsd</t>
-  </si>
-  <si>
-    <t>UMAR--MZ002--1--M</t>
-  </si>
-  <si>
-    <t>MZ007</t>
-  </si>
-  <si>
-    <t>mer--geo</t>
-  </si>
-  <si>
-    <t>2--1</t>
-  </si>
-  <si>
-    <t>lkj--11</t>
-  </si>
-  <si>
-    <t>UMAR--MZ007--LKJ--11--A</t>
-  </si>
-  <si>
-    <t>umar, surs</t>
+    <t>UMAR-SURS--MZ002--HR--M</t>
+  </si>
+  <si>
+    <t>UMAR-SURS--MZ002--SI--M</t>
+  </si>
+  <si>
+    <t>hr</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>hrv</t>
+  </si>
+  <si>
+    <t>slo</t>
+  </si>
+  <si>
+    <t>sdf--sdfSD</t>
+  </si>
+  <si>
+    <t>LKJ--11</t>
+  </si>
+  <si>
+    <t>LKJ</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>sdfd--dsfg</t>
   </si>
   <si>
     <t xml:space="preserve">source</t>
@@ -161,16 +164,16 @@
     <t xml:space="preserve">Maja Založnik</t>
   </si>
   <si>
-    <t xml:space="preserve">MZ001</t>
+    <t xml:space="preserve">MZ002</t>
   </si>
   <si>
     <t xml:space="preserve">dff</t>
   </si>
   <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dsf</t>
+    <t xml:space="preserve">hrv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hr</t>
   </si>
   <si>
     <t xml:space="preserve">%</t>
@@ -182,43 +185,37 @@
     <t xml:space="preserve">sdt</t>
   </si>
   <si>
-    <t xml:space="preserve">UMAR--MZ001--1123--M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ffs</t>
+    <t xml:space="preserve">UMAR-SURS--MZ002--HR--M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">si</t>
   </si>
   <si>
     <t xml:space="preserve">sdffs</t>
   </si>
   <si>
-    <t xml:space="preserve">UMAR--MZ001--234--M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MZ002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sdsd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UMAR--MZ002--1--M</t>
+    <t xml:space="preserve">UMAR-SURS--MZ002--SI--M</t>
   </si>
   <si>
     <t xml:space="preserve">MZ007</t>
   </si>
   <si>
-    <t xml:space="preserve">mer--geo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2--1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lkj--11</t>
+    <t xml:space="preserve">sdfd--dsfg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdf--sdfSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LKJ--11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LKJ</t>
   </si>
   <si>
     <t xml:space="preserve">UMAR--MZ007--LKJ--11--A</t>
@@ -279,9 +276,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -319,7 +316,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -425,7 +422,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -567,7 +564,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -578,7 +575,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
@@ -588,177 +585,142 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="E2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J2" t="s">
-        <v>47</v>
-      </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
         <v>48</v>
       </c>
-      <c r="E3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J3" t="s">
-        <v>47</v>
-      </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
         <v>60</v>
       </c>
-      <c r="F4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J4" t="s">
-        <v>59</v>
-      </c>
       <c r="K4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" t="s">
         <v>66</v>
-      </c>
-      <c r="G5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" t="s">
-        <v>65</v>
-      </c>
-      <c r="J5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K5" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
